--- a/Ecopulpers/Charts/Value Added Change by Commodities.xlsx
+++ b/Ecopulpers/Charts/Value Added Change by Commodities.xlsx
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.001522470061900094</v>
+        <v>-0.002123890328221023</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001963694085134193</v>
+        <v>-0.001966401818208396</v>
       </c>
       <c r="K2">
-        <v>0.0008267819357570261</v>
+        <v>-0.01126093356288038</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.002779728858513408</v>
+        <v>-1.332718966295943e-06</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0002068480087018543</v>
+        <v>-9.917152965499554e-08</v>
       </c>
       <c r="K3">
-        <v>0.01372335957421456</v>
+        <v>-6.579546607099473e-06</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0002854976046364754</v>
+        <v>-0.002350621733057778</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003681885136757046</v>
+        <v>-0.0003841219004243612</v>
       </c>
       <c r="K4">
-        <v>0.001292361557716504</v>
+        <v>-0.008251096296589822</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.143363862065598e-08</v>
+        <v>-0.001117816865416899</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.66310359822819e-09</v>
+        <v>-6.665170531050535e-05</v>
       </c>
       <c r="K5">
-        <v>9.786117516341619e-08</v>
+        <v>-0.001780639285243524</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.180116229690611e-05</v>
+        <v>-1.533355316496454e-06</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.973553238116438e-06</v>
+        <v>-2.924869022535859e-07</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.003441392684180755</v>
+        <v>0.0002426947467029095</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01891588902799413</v>
+        <v>0.001333991007413715</v>
       </c>
       <c r="K7">
-        <v>0.06396976549876854</v>
+        <v>0.004511291685048491</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.002901131079852348</v>
+        <v>-0.0005114885625516763</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.005973087238089647</v>
+        <v>-0.001053094711096492</v>
       </c>
       <c r="K8">
-        <v>0.09185747697483748</v>
+        <v>-0.01619507960276678</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.181169182018493e-06</v>
+        <v>-0.0005424485182174976</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.415904600638896e-05</v>
+        <v>-0.01107788063382031</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.05217906572579523</v>
+        <v>-0.0001674971645115875</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01185652543063043</v>
+        <v>-0.000567304428841453</v>
       </c>
       <c r="K10">
-        <v>0.1069506643107161</v>
+        <v>-0.004728587227873504</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.084318298846483e-05</v>
+        <v>-5.378080459195189e-05</v>
       </c>
       <c r="K11">
-        <v>0.001554852024128195</v>
+        <v>-0.0009838499536272138</v>
       </c>
     </row>
   </sheetData>

--- a/Ecopulpers/Charts/Value Added Change by Commodities.xlsx
+++ b/Ecopulpers/Charts/Value Added Change by Commodities.xlsx
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.002123890328221023</v>
+        <v>-0.2059211861924268</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.001966401818208396</v>
+        <v>-0.1906504624348599</v>
       </c>
       <c r="K2">
-        <v>-0.01126093356288038</v>
+        <v>-1.091793409490492</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.332718966295943e-06</v>
+        <v>-0.0001292214165005134</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-9.917152965499554e-08</v>
+        <v>-9.615755288905348e-06</v>
       </c>
       <c r="K3">
-        <v>-6.579546607099473e-06</v>
+        <v>-0.0006379586047842167</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.002350621733057778</v>
+        <v>-0.2279020320565905</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.0003841219004243612</v>
+        <v>-0.03724185825558379</v>
       </c>
       <c r="K4">
-        <v>-0.008251096296589822</v>
+        <v>-0.7999758433434181</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.001117816865416899</v>
+        <v>-0.1083768166242862</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-6.665170531050535e-05</v>
+        <v>-0.006462149452829635</v>
       </c>
       <c r="K5">
-        <v>-0.001780639285243524</v>
+        <v>-0.1726401016494492</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.533355316496454e-06</v>
+        <v>-0.0001486969122197479</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-2.924869022535859e-07</v>
+        <v>-2.836387079696578e-05</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0002426947467029095</v>
+        <v>0.0235206975012261</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001333991007413715</v>
+        <v>0.1292833873449126</v>
       </c>
       <c r="K7">
-        <v>0.004511291685048491</v>
+        <v>0.437210641335696</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0005114885625516763</v>
+        <v>-0.04959119005798129</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.001053094711096492</v>
+        <v>-0.1021024201545515</v>
       </c>
       <c r="K8">
-        <v>-0.01619507960276678</v>
+        <v>-1.570188134384807</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0005424485182174976</v>
+        <v>-0.05259255335829494</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.01107788063382031</v>
+        <v>-1.07404483317805</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.0001674971645115875</v>
+        <v>-0.01623981622469728</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.000567304428841453</v>
+        <v>-0.05500305283931084</v>
       </c>
       <c r="K10">
-        <v>-0.004728587227873504</v>
+        <v>-0.4584599105874076</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-5.378080459195189e-05</v>
+        <v>-0.005214232620346593</v>
       </c>
       <c r="K11">
-        <v>-0.0009838499536272138</v>
+        <v>-0.09538786228222307</v>
       </c>
     </row>
   </sheetData>
